--- a/src/main/resources/template/excel/export/purchaseReplenishBranch.xlsx
+++ b/src/main/resources/template/excel/export/purchaseReplenishBranch.xlsx
@@ -39,7 +39,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q4")</t>
+          <t>jx:area(lastCell="P4")</t>
         </r>
       </text>
     </comment>
@@ -53,7 +53,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="P3")</t>
         </r>
       </text>
     </comment>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>总计：</t>
   </si>
@@ -285,11 +285,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3:G3:G3+0)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(H3:H3:H3+0)]</t>
+    <t>$[SUMPRODUCT(J3:J3:J3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${branchName}补货分析报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.branchCode}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.branchName}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -297,11 +313,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(J3:J3:J3+0)]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${branchName}补货分析报表</t>
+    <t>$[SUMPRODUCT(K3:K3:K3+0)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(L3:L3:L3+0)]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -837,26 +853,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="6" customWidth="1"/>
-    <col min="6" max="14" width="13.5" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.75" style="2" customWidth="1"/>
+    <col min="2" max="3" width="18.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="6" customWidth="1"/>
+    <col min="8" max="15" width="13.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -871,133 +889,149 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1084,7 +1118,7 @@
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
